--- a/predictions полгода до/Прогнозы_ETS_HA12.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_HA12.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20191329.82506626</v>
+        <v>20675693.83719772</v>
       </c>
       <c r="C2" t="n">
-        <v>21115387.97342318</v>
+        <v>19534543.5221239</v>
       </c>
       <c r="D2" t="n">
-        <v>20121403.86845108</v>
+        <v>18588311.48397013</v>
       </c>
       <c r="E2" t="n">
-        <v>19322339.1175746</v>
+        <v>19531637.0020196</v>
       </c>
       <c r="F2" t="n">
-        <v>20412849.2048526</v>
+        <v>19701815.88297068</v>
       </c>
       <c r="G2" t="n">
-        <v>20730206.77160512</v>
+        <v>14953713.0732123</v>
       </c>
       <c r="H2" t="n">
-        <v>16211319.97425426</v>
+        <v>17101958.79936774</v>
       </c>
       <c r="I2" t="n">
-        <v>18424714.96189044</v>
+        <v>18324893.9424514</v>
       </c>
       <c r="J2" t="n">
-        <v>19794844.01905314</v>
+        <v>16654953.65872416</v>
       </c>
       <c r="K2" t="n">
-        <v>18272092.60579888</v>
+        <v>15760738.69534292</v>
       </c>
       <c r="L2" t="n">
-        <v>17525068.86965569</v>
+        <v>14800847.18297686</v>
       </c>
       <c r="M2" t="n">
-        <v>16712352.40957121</v>
+        <v>14606945.22467793</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11833697.41229808</v>
+        <v>9556807.665525209</v>
       </c>
       <c r="C3" t="n">
-        <v>12728860.03507109</v>
+        <v>10345886.29914383</v>
       </c>
       <c r="D3" t="n">
-        <v>13889058.14992993</v>
+        <v>11091639.28059724</v>
       </c>
       <c r="E3" t="n">
-        <v>15005930.59287458</v>
+        <v>11746507.07223918</v>
       </c>
       <c r="F3" t="n">
-        <v>16031925.35795796</v>
+        <v>13371372.59946515</v>
       </c>
       <c r="G3" t="n">
-        <v>18027930.88894385</v>
+        <v>12476293.30286168</v>
       </c>
       <c r="H3" t="n">
-        <v>18210362.80566617</v>
+        <v>13802390.47715836</v>
       </c>
       <c r="I3" t="n">
-        <v>19201365.96517957</v>
+        <v>14406119.79380947</v>
       </c>
       <c r="J3" t="n">
-        <v>20176223.39326027</v>
+        <v>14973823.26472033</v>
       </c>
       <c r="K3" t="n">
-        <v>21115222.07521486</v>
+        <v>15514959.48704161</v>
       </c>
       <c r="L3" t="n">
-        <v>22027421.41773267</v>
+        <v>15991184.52169114</v>
       </c>
       <c r="M3" t="n">
-        <v>22874812.19615818</v>
+        <v>16469724.50954381</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4893041.700416524</v>
+        <v>11115246.55883595</v>
       </c>
       <c r="C4" t="n">
-        <v>4391093.91706738</v>
+        <v>11771525.51707453</v>
       </c>
       <c r="D4" t="n">
-        <v>5030157.993541026</v>
+        <v>12002547.7310467</v>
       </c>
       <c r="E4" t="n">
-        <v>5245052.924432384</v>
+        <v>11986329.99517292</v>
       </c>
       <c r="F4" t="n">
-        <v>5223133.406870533</v>
+        <v>12263787.41133638</v>
       </c>
       <c r="G4" t="n">
-        <v>5526583.704281758</v>
+        <v>11704297.65696773</v>
       </c>
       <c r="H4" t="n">
-        <v>4998426.698236355</v>
+        <v>11765920.57923223</v>
       </c>
       <c r="I4" t="n">
-        <v>4938424.350693861</v>
+        <v>11581882.12114918</v>
       </c>
       <c r="J4" t="n">
-        <v>4737109.484348902</v>
+        <v>12271662.09538408</v>
       </c>
       <c r="K4" t="n">
-        <v>5409647.120743632</v>
+        <v>12167667.82853266</v>
       </c>
       <c r="L4" t="n">
-        <v>5288360.251232774</v>
+        <v>12161614.2247433</v>
       </c>
       <c r="M4" t="n">
-        <v>5264979.288022988</v>
+        <v>11964027.87872391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3973662.016011745</v>
+        <v>21977882.35053214</v>
       </c>
       <c r="C5" t="n">
-        <v>5585058.809701128</v>
+        <v>23751907.74700243</v>
       </c>
       <c r="D5" t="n">
-        <v>7196453.864720148</v>
+        <v>24462648.58231254</v>
       </c>
       <c r="E5" t="n">
-        <v>8806742.801624894</v>
+        <v>27013443.03285519</v>
       </c>
       <c r="F5" t="n">
-        <v>10406605.71989466</v>
+        <v>39121074.83612771</v>
       </c>
       <c r="G5" t="n">
-        <v>11974769.98904786</v>
+        <v>19620248.01189697</v>
       </c>
       <c r="H5" t="n">
-        <v>13641996.76197716</v>
+        <v>30674491.11136961</v>
       </c>
       <c r="I5" t="n">
-        <v>15253454.35991338</v>
+        <v>31698230.35218526</v>
       </c>
       <c r="J5" t="n">
-        <v>16864827.68923918</v>
+        <v>31944880.56722479</v>
       </c>
       <c r="K5" t="n">
-        <v>18476231.2674503</v>
+        <v>32307554.22446162</v>
       </c>
       <c r="L5" t="n">
-        <v>20087678.08552932</v>
+        <v>34481140.49983947</v>
       </c>
       <c r="M5" t="n">
-        <v>21699108.60733475</v>
+        <v>34107220.78750277</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9318960.629459938</v>
+        <v>1943998.649702712</v>
       </c>
       <c r="C6" t="n">
-        <v>9513596.55212063</v>
+        <v>3399706.504242695</v>
       </c>
       <c r="D6" t="n">
-        <v>10009067.64566583</v>
+        <v>1158193.684272506</v>
       </c>
       <c r="E6" t="n">
-        <v>11246125.70903268</v>
+        <v>3891087.716966485</v>
       </c>
       <c r="F6" t="n">
-        <v>11704407.81979799</v>
+        <v>1882184.279318378</v>
       </c>
       <c r="G6" t="n">
-        <v>19162271.68513477</v>
+        <v>1608884.057251757</v>
       </c>
       <c r="H6" t="n">
-        <v>9004300.305227047</v>
+        <v>4457135.278312824</v>
       </c>
       <c r="I6" t="n">
-        <v>13935982.58429258</v>
+        <v>5213206.964611577</v>
       </c>
       <c r="J6" t="n">
-        <v>12506208.46324357</v>
+        <v>3562737.741289361</v>
       </c>
       <c r="K6" t="n">
-        <v>12690152.67661837</v>
+        <v>4375722.261076703</v>
       </c>
       <c r="L6" t="n">
-        <v>13369256.34221753</v>
+        <v>2378713.923635513</v>
       </c>
       <c r="M6" t="n">
-        <v>13807698.0356882</v>
+        <v>3840844.292189882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2061192.815491051</v>
+        <v>8415310.549680552</v>
       </c>
       <c r="C7" t="n">
-        <v>2401009.39227117</v>
+        <v>8134333.774327341</v>
       </c>
       <c r="D7" t="n">
-        <v>3020667.233202169</v>
+        <v>8926922.990741786</v>
       </c>
       <c r="E7" t="n">
-        <v>2606105.86580107</v>
+        <v>7638514.843589186</v>
       </c>
       <c r="F7" t="n">
-        <v>3022436.37398329</v>
+        <v>8324399.413222572</v>
       </c>
       <c r="G7" t="n">
-        <v>4896803.565885167</v>
+        <v>7600490.321686953</v>
       </c>
       <c r="H7" t="n">
-        <v>1983948.644751396</v>
+        <v>9845104.085057436</v>
       </c>
       <c r="I7" t="n">
-        <v>3079179.023578597</v>
+        <v>10987869.68339441</v>
       </c>
       <c r="J7" t="n">
-        <v>3426341.80985728</v>
+        <v>10079647.90189104</v>
       </c>
       <c r="K7" t="n">
-        <v>3882363.361639861</v>
+        <v>9270907.266191877</v>
       </c>
       <c r="L7" t="n">
-        <v>2986405.484745935</v>
+        <v>9330796.028248893</v>
       </c>
       <c r="M7" t="n">
-        <v>3772338.658899102</v>
+        <v>9897275.043236488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1607742.249253295</v>
+        <v>16491368.66253043</v>
       </c>
       <c r="C8" t="n">
-        <v>1454714.599812999</v>
+        <v>19261666.60033699</v>
       </c>
       <c r="D8" t="n">
-        <v>1354307.085365047</v>
+        <v>19285306.40337294</v>
       </c>
       <c r="E8" t="n">
-        <v>1622403.535084429</v>
+        <v>21044968.03280643</v>
       </c>
       <c r="F8" t="n">
-        <v>2213790.590253297</v>
+        <v>26773975.97339809</v>
       </c>
       <c r="G8" t="n">
-        <v>1608174.441792542</v>
+        <v>15273378.9705103</v>
       </c>
       <c r="H8" t="n">
-        <v>863939.0819673116</v>
+        <v>20889818.62872906</v>
       </c>
       <c r="I8" t="n">
-        <v>1301012.809514717</v>
+        <v>24455024.66242506</v>
       </c>
       <c r="J8" t="n">
-        <v>1293694.013365443</v>
+        <v>22619529.16243929</v>
       </c>
       <c r="K8" t="n">
-        <v>1371842.5761901</v>
+        <v>20657460.87007728</v>
       </c>
       <c r="L8" t="n">
-        <v>1120119.558835052</v>
+        <v>22050157.38241468</v>
       </c>
       <c r="M8" t="n">
-        <v>1479713.824101933</v>
+        <v>22034722.32187233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2814119.437235713</v>
+        <v>24879549.68502858</v>
       </c>
       <c r="C9" t="n">
-        <v>2809393.711022782</v>
+        <v>23855805.95080438</v>
       </c>
       <c r="D9" t="n">
-        <v>2782771.445824381</v>
+        <v>24187959.68971258</v>
       </c>
       <c r="E9" t="n">
-        <v>2730701.295204042</v>
+        <v>24750715.64589553</v>
       </c>
       <c r="F9" t="n">
-        <v>2650921.236706525</v>
+        <v>33500878.31779234</v>
       </c>
       <c r="G9" t="n">
-        <v>2559733.953941041</v>
+        <v>23703487.95368065</v>
       </c>
       <c r="H9" t="n">
-        <v>2702064.87628192</v>
+        <v>28146209.20984682</v>
       </c>
       <c r="I9" t="n">
-        <v>2907798.916820372</v>
+        <v>29003053.83295221</v>
       </c>
       <c r="J9" t="n">
-        <v>2986935.521831603</v>
+        <v>30789427.83747343</v>
       </c>
       <c r="K9" t="n">
-        <v>2912702.389881951</v>
+        <v>29791800.93519358</v>
       </c>
       <c r="L9" t="n">
-        <v>3036395.532487093</v>
+        <v>32129934.16386074</v>
       </c>
       <c r="M9" t="n">
-        <v>2638550.651163378</v>
+        <v>29239471.89046315</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4626914.138855817</v>
+        <v>26833872.28987744</v>
       </c>
       <c r="C10" t="n">
-        <v>5555020.868019315</v>
+        <v>32295459.93754143</v>
       </c>
       <c r="D10" t="n">
-        <v>5927023.679736497</v>
+        <v>37889548.15031451</v>
       </c>
       <c r="E10" t="n">
-        <v>5078011.781369791</v>
+        <v>43056735.89235535</v>
       </c>
       <c r="F10" t="n">
-        <v>5743792.85267139</v>
+        <v>48743291.63652977</v>
       </c>
       <c r="G10" t="n">
-        <v>8583726.902155347</v>
+        <v>52722258.9459196</v>
       </c>
       <c r="H10" t="n">
-        <v>4269387.303046715</v>
+        <v>59050090.98176862</v>
       </c>
       <c r="I10" t="n">
-        <v>6097870.812300477</v>
+        <v>65980779.65635842</v>
       </c>
       <c r="J10" t="n">
-        <v>7713378.276682601</v>
+        <v>72093779.94340788</v>
       </c>
       <c r="K10" t="n">
-        <v>6694601.371565118</v>
+        <v>77028604.8710971</v>
       </c>
       <c r="L10" t="n">
-        <v>6902033.229508646</v>
+        <v>81428715.55305344</v>
       </c>
       <c r="M10" t="n">
-        <v>6841638.407320072</v>
+        <v>88528291.866014</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3409741.42319095</v>
+        <v>16357929.0828007</v>
       </c>
       <c r="C11" t="n">
-        <v>2779275.444931107</v>
+        <v>17859379.25229692</v>
       </c>
       <c r="D11" t="n">
-        <v>3960253.596573224</v>
+        <v>19586577.24128668</v>
       </c>
       <c r="E11" t="n">
-        <v>1841839.613596944</v>
+        <v>20272623.97212797</v>
       </c>
       <c r="F11" t="n">
-        <v>4294886.034173104</v>
+        <v>19472999.89976534</v>
       </c>
       <c r="G11" t="n">
-        <v>2106175.834163968</v>
+        <v>19368623.54024042</v>
       </c>
       <c r="H11" t="n">
-        <v>2296230.76715002</v>
+        <v>20856442.80336553</v>
       </c>
       <c r="I11" t="n">
-        <v>3763697.20063468</v>
+        <v>21456499.77582609</v>
       </c>
       <c r="J11" t="n">
-        <v>3778102.821989838</v>
+        <v>22061172.43990049</v>
       </c>
       <c r="K11" t="n">
-        <v>3032151.171528037</v>
+        <v>22716871.80274485</v>
       </c>
       <c r="L11" t="n">
-        <v>4036566.87319204</v>
+        <v>23365249.71718444</v>
       </c>
       <c r="M11" t="n">
-        <v>2444730.729925786</v>
+        <v>24548930.02641273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>365837.8866795964</v>
+        <v>40728478.69549072</v>
       </c>
       <c r="C12" t="n">
-        <v>-112833.4114275767</v>
+        <v>44858144.64914018</v>
       </c>
       <c r="D12" t="n">
-        <v>35658.57502772633</v>
+        <v>47379031.41219941</v>
       </c>
       <c r="E12" t="n">
-        <v>-213777.5368024149</v>
+        <v>46268743.83810277</v>
       </c>
       <c r="F12" t="n">
-        <v>-60144.66482744864</v>
+        <v>40449282.28987933</v>
       </c>
       <c r="G12" t="n">
-        <v>-6706.459124327303</v>
+        <v>39129167.24566838</v>
       </c>
       <c r="H12" t="n">
-        <v>-446399.8352552968</v>
+        <v>45133903.63580039</v>
       </c>
       <c r="I12" t="n">
-        <v>658264.6649105276</v>
+        <v>41742507.11363614</v>
       </c>
       <c r="J12" t="n">
-        <v>1273682.247939571</v>
+        <v>41506413.59273857</v>
       </c>
       <c r="K12" t="n">
-        <v>242855.1047396275</v>
+        <v>38263397.84777323</v>
       </c>
       <c r="L12" t="n">
-        <v>-75195.02218952401</v>
+        <v>44354746.89813916</v>
       </c>
       <c r="M12" t="n">
-        <v>-606387.6986604496</v>
+        <v>50830135.2367598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1636804.068456088</v>
+        <v>46136884.26091389</v>
       </c>
       <c r="C13" t="n">
-        <v>1747589.569911675</v>
+        <v>46484916.55235429</v>
       </c>
       <c r="D13" t="n">
-        <v>1850291.272040888</v>
+        <v>49705949.57775891</v>
       </c>
       <c r="E13" t="n">
-        <v>2232856.890664539</v>
+        <v>43749617.14461312</v>
       </c>
       <c r="F13" t="n">
-        <v>2166668.169552783</v>
+        <v>41530546.0981216</v>
       </c>
       <c r="G13" t="n">
-        <v>2412999.259503487</v>
+        <v>39313605.21301306</v>
       </c>
       <c r="H13" t="n">
-        <v>2626198.685247709</v>
+        <v>43581980.51338877</v>
       </c>
       <c r="I13" t="n">
-        <v>2796576.789346588</v>
+        <v>40400248.10076969</v>
       </c>
       <c r="J13" t="n">
-        <v>2972071.361698396</v>
+        <v>42916433.45097118</v>
       </c>
       <c r="K13" t="n">
-        <v>3140272.408078588</v>
+        <v>37575335.97595759</v>
       </c>
       <c r="L13" t="n">
-        <v>3307879.027304029</v>
+        <v>43696246.92636894</v>
       </c>
       <c r="M13" t="n">
-        <v>3479525.873203316</v>
+        <v>49871455.41733173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-228828.9208340969</v>
+        <v>3177891.310675011</v>
       </c>
       <c r="C14" t="n">
-        <v>-97706.54417976888</v>
+        <v>4310689.330810236</v>
       </c>
       <c r="D14" t="n">
-        <v>-280455.0725266367</v>
+        <v>5441869.530604966</v>
       </c>
       <c r="E14" t="n">
-        <v>575202.3494882878</v>
+        <v>6574703.510874572</v>
       </c>
       <c r="F14" t="n">
-        <v>-290816.1989521864</v>
+        <v>7699952.998218649</v>
       </c>
       <c r="G14" t="n">
-        <v>6534.849750020483</v>
+        <v>8800500.415886851</v>
       </c>
       <c r="H14" t="n">
-        <v>-180032.4459003345</v>
+        <v>10029253.99271665</v>
       </c>
       <c r="I14" t="n">
-        <v>1187354.854901385</v>
+        <v>11170659.14827002</v>
       </c>
       <c r="J14" t="n">
-        <v>2383789.109997495</v>
+        <v>12311967.98155909</v>
       </c>
       <c r="K14" t="n">
-        <v>1489290.340085068</v>
+        <v>13453330.56207721</v>
       </c>
       <c r="L14" t="n">
-        <v>683927.0877762779</v>
+        <v>14594761.48963765</v>
       </c>
       <c r="M14" t="n">
-        <v>755741.5252314836</v>
+        <v>15736090.77848341</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1014221.439887156</v>
+        <v>4220139.136532298</v>
       </c>
       <c r="C15" t="n">
-        <v>940014.1449409008</v>
+        <v>3783608.068730619</v>
       </c>
       <c r="D15" t="n">
-        <v>999486.4061175779</v>
+        <v>3663330.363361088</v>
       </c>
       <c r="E15" t="n">
-        <v>1083069.739654892</v>
+        <v>4388971.929081585</v>
       </c>
       <c r="F15" t="n">
-        <v>1119745.86033859</v>
+        <v>3993850.496401452</v>
       </c>
       <c r="G15" t="n">
-        <v>1453657.472461999</v>
+        <v>3880061.441189954</v>
       </c>
       <c r="H15" t="n">
-        <v>1340114.917136177</v>
+        <v>4633858.325062987</v>
       </c>
       <c r="I15" t="n">
-        <v>1402881.15580524</v>
+        <v>4559440.411683872</v>
       </c>
       <c r="J15" t="n">
-        <v>1470869.556688455</v>
+        <v>5274996.128310608</v>
       </c>
       <c r="K15" t="n">
-        <v>1537469.993633646</v>
+        <v>4398524.132373692</v>
       </c>
       <c r="L15" t="n">
-        <v>1603415.463599926</v>
+        <v>4239769.068330393</v>
       </c>
       <c r="M15" t="n">
-        <v>1669068.651138655</v>
+        <v>4124128.387180873</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1309241.639365644</v>
+        <v>9837298.349553078</v>
       </c>
       <c r="C16" t="n">
-        <v>1399963.967273443</v>
+        <v>13328662.53000186</v>
       </c>
       <c r="D16" t="n">
-        <v>1533023.828660383</v>
+        <v>12830290.62454604</v>
       </c>
       <c r="E16" t="n">
-        <v>1683926.849384496</v>
+        <v>14704885.2780481</v>
       </c>
       <c r="F16" t="n">
-        <v>1774311.818029487</v>
+        <v>14559125.34382784</v>
       </c>
       <c r="G16" t="n">
-        <v>2181173.441248524</v>
+        <v>14431700.46962901</v>
       </c>
       <c r="H16" t="n">
-        <v>2192440.598592953</v>
+        <v>13549719.95395892</v>
       </c>
       <c r="I16" t="n">
-        <v>2341392.874957684</v>
+        <v>13947505.91209815</v>
       </c>
       <c r="J16" t="n">
-        <v>2492250.026946534</v>
+        <v>15234162.13162127</v>
       </c>
       <c r="K16" t="n">
-        <v>2642323.696421033</v>
+        <v>14951296.11303277</v>
       </c>
       <c r="L16" t="n">
-        <v>2793137.15460508</v>
+        <v>14976559.9043694</v>
       </c>
       <c r="M16" t="n">
-        <v>2933947.894202031</v>
+        <v>15138890.00446058</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7750429.405452074</v>
+        <v>4911650.622974373</v>
       </c>
       <c r="C17" t="n">
-        <v>8664513.564262683</v>
+        <v>5600995.204479828</v>
       </c>
       <c r="D17" t="n">
-        <v>9557440.818362121</v>
+        <v>5750385.358366211</v>
       </c>
       <c r="E17" t="n">
-        <v>10167553.49160923</v>
+        <v>6129756.481772324</v>
       </c>
       <c r="F17" t="n">
-        <v>10968866.79724997</v>
+        <v>5598386.383934642</v>
       </c>
       <c r="G17" t="n">
-        <v>11648112.56328442</v>
+        <v>4946604.562982251</v>
       </c>
       <c r="H17" t="n">
-        <v>12889516.24168051</v>
+        <v>6250083.153357431</v>
       </c>
       <c r="I17" t="n">
-        <v>14022444.02528818</v>
+        <v>5402771.170518464</v>
       </c>
       <c r="J17" t="n">
-        <v>14887459.24692834</v>
+        <v>5360224.489659535</v>
       </c>
       <c r="K17" t="n">
-        <v>15630733.9783722</v>
+        <v>5541505.564410112</v>
       </c>
       <c r="L17" t="n">
-        <v>16812520.29876947</v>
+        <v>6194092.848265816</v>
       </c>
       <c r="M17" t="n">
-        <v>17220888.80290359</v>
+        <v>6240883.372814872</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1161238.03621076</v>
+        <v>3400003.917918018</v>
       </c>
       <c r="C18" t="n">
-        <v>860576.5121760666</v>
+        <v>3864114.050129603</v>
       </c>
       <c r="D18" t="n">
-        <v>1437156.35876103</v>
+        <v>3345179.504342579</v>
       </c>
       <c r="E18" t="n">
-        <v>1137234.044250161</v>
+        <v>3273247.297708286</v>
       </c>
       <c r="F18" t="n">
-        <v>1485852.379192269</v>
+        <v>3831656.964160448</v>
       </c>
       <c r="G18" t="n">
-        <v>3909488.37274554</v>
+        <v>3321551.402711148</v>
       </c>
       <c r="H18" t="n">
-        <v>990951.4031178912</v>
+        <v>4609668.54494027</v>
       </c>
       <c r="I18" t="n">
-        <v>1492497.575070846</v>
+        <v>4085202.671135982</v>
       </c>
       <c r="J18" t="n">
-        <v>1725685.271942318</v>
+        <v>3526698.026175514</v>
       </c>
       <c r="K18" t="n">
-        <v>1401487.373972985</v>
+        <v>4530820.714443628</v>
       </c>
       <c r="L18" t="n">
-        <v>1099903.51717387</v>
+        <v>4719244.840047713</v>
       </c>
       <c r="M18" t="n">
-        <v>1438533.973283238</v>
+        <v>3392597.715370796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-105949.8214821788</v>
+        <v>7026063.394260041</v>
       </c>
       <c r="C19" t="n">
-        <v>-202898.1874230624</v>
+        <v>4787144.101651588</v>
       </c>
       <c r="D19" t="n">
-        <v>108174.991407054</v>
+        <v>6638522.461567434</v>
       </c>
       <c r="E19" t="n">
-        <v>-209812.7502070729</v>
+        <v>5208183.686047717</v>
       </c>
       <c r="F19" t="n">
-        <v>-283139.8539810913</v>
+        <v>6413143.624273318</v>
       </c>
       <c r="G19" t="n">
-        <v>-156545.2241347439</v>
+        <v>3439890.78916939</v>
       </c>
       <c r="H19" t="n">
-        <v>-299621.8293786312</v>
+        <v>4656563.361159984</v>
       </c>
       <c r="I19" t="n">
-        <v>-271815.40528032</v>
+        <v>6157802.75339148</v>
       </c>
       <c r="J19" t="n">
-        <v>-85417.96022547205</v>
+        <v>4111754.590528854</v>
       </c>
       <c r="K19" t="n">
-        <v>-342317.6392052231</v>
+        <v>3591101.378916867</v>
       </c>
       <c r="L19" t="n">
-        <v>-260075.316554492</v>
+        <v>5083988.614539991</v>
       </c>
       <c r="M19" t="n">
-        <v>-432018.0780509195</v>
+        <v>6538579.832600824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855132.315979025</v>
+        <v>1844390.182596272</v>
       </c>
       <c r="C20" t="n">
-        <v>2000805.796964993</v>
+        <v>2586200.495051732</v>
       </c>
       <c r="D20" t="n">
-        <v>1991382.127905891</v>
+        <v>3059874.443704611</v>
       </c>
       <c r="E20" t="n">
-        <v>2210786.228681816</v>
+        <v>3175294.793466355</v>
       </c>
       <c r="F20" t="n">
-        <v>2109609.233416821</v>
+        <v>2144312.617830465</v>
       </c>
       <c r="G20" t="n">
-        <v>2588615.867221439</v>
+        <v>2067809.229943858</v>
       </c>
       <c r="H20" t="n">
-        <v>216134.2231222314</v>
+        <v>3055987.25220683</v>
       </c>
       <c r="I20" t="n">
-        <v>1278861.076574333</v>
+        <v>3307685.401223789</v>
       </c>
       <c r="J20" t="n">
-        <v>1917481.50128715</v>
+        <v>1989943.101427501</v>
       </c>
       <c r="K20" t="n">
-        <v>2010505.860133756</v>
+        <v>2225272.206386943</v>
       </c>
       <c r="L20" t="n">
-        <v>1560780.533951497</v>
+        <v>3316090.868709644</v>
       </c>
       <c r="M20" t="n">
-        <v>2162992.918824442</v>
+        <v>2332500.114550791</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1662537.950047017</v>
+        <v>4015938.844764878</v>
       </c>
       <c r="C21" t="n">
-        <v>1096069.767844351</v>
+        <v>4049901.218400443</v>
       </c>
       <c r="D21" t="n">
-        <v>1148371.820339243</v>
+        <v>5313382.611905976</v>
       </c>
       <c r="E21" t="n">
-        <v>1872338.492120666</v>
+        <v>4918385.460603609</v>
       </c>
       <c r="F21" t="n">
-        <v>1214787.709084532</v>
+        <v>5182682.519524802</v>
       </c>
       <c r="G21" t="n">
-        <v>1193541.932798188</v>
+        <v>4404931.632371368</v>
       </c>
       <c r="H21" t="n">
-        <v>1207376.148902862</v>
+        <v>4138459.295155588</v>
       </c>
       <c r="I21" t="n">
-        <v>1532679.377226461</v>
+        <v>4106657.158168184</v>
       </c>
       <c r="J21" t="n">
-        <v>1410826.677568763</v>
+        <v>4314530.710023474</v>
       </c>
       <c r="K21" t="n">
-        <v>1880851.512509681</v>
+        <v>4617294.516600766</v>
       </c>
       <c r="L21" t="n">
-        <v>1435868.197166217</v>
+        <v>4846854.251581244</v>
       </c>
       <c r="M21" t="n">
-        <v>1564186.711446675</v>
+        <v>4057416.385121365</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86756.33864457975</v>
+        <v>9815524.758163165</v>
       </c>
       <c r="C22" t="n">
-        <v>-41245.66979991226</v>
+        <v>11811653.8638298</v>
       </c>
       <c r="D22" t="n">
-        <v>-52631.58205699769</v>
+        <v>13294801.80880654</v>
       </c>
       <c r="E22" t="n">
-        <v>39825.19293372286</v>
+        <v>12726178.24979447</v>
       </c>
       <c r="F22" t="n">
-        <v>867962.9576555204</v>
+        <v>12994594.6742379</v>
       </c>
       <c r="G22" t="n">
-        <v>1389369.174360604</v>
+        <v>10038978.16252685</v>
       </c>
       <c r="H22" t="n">
-        <v>1251488.434806662</v>
+        <v>12395798.9364618</v>
       </c>
       <c r="I22" t="n">
-        <v>717912.3820895907</v>
+        <v>10904998.1484625</v>
       </c>
       <c r="J22" t="n">
-        <v>1349298.315930229</v>
+        <v>12558624.95804317</v>
       </c>
       <c r="K22" t="n">
-        <v>1042808.192284246</v>
+        <v>10395942.34625707</v>
       </c>
       <c r="L22" t="n">
-        <v>570324.3886678545</v>
+        <v>11868929.786373</v>
       </c>
       <c r="M22" t="n">
-        <v>438193.3313790393</v>
+        <v>11543646.61555859</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-49213.10926459848</v>
+        <v>16624016.77992038</v>
       </c>
       <c r="C23" t="n">
-        <v>-49212.95550387216</v>
+        <v>13403029.88526017</v>
       </c>
       <c r="D23" t="n">
-        <v>-49212.33289216438</v>
+        <v>10377705.02576045</v>
       </c>
       <c r="E23" t="n">
-        <v>-48071.48883744357</v>
+        <v>10296801.21072813</v>
       </c>
       <c r="F23" t="n">
-        <v>-41676.23167166587</v>
+        <v>10409286.60607894</v>
       </c>
       <c r="G23" t="n">
-        <v>247866.3411384442</v>
+        <v>6607502.220799604</v>
       </c>
       <c r="H23" t="n">
-        <v>-49198.67325526346</v>
+        <v>9772611.073649401</v>
       </c>
       <c r="I23" t="n">
-        <v>111798.9925858539</v>
+        <v>9697209.826653196</v>
       </c>
       <c r="J23" t="n">
-        <v>59450.71349751014</v>
+        <v>9563639.459914217</v>
       </c>
       <c r="K23" t="n">
-        <v>-29135.85464267696</v>
+        <v>8069801.251396937</v>
       </c>
       <c r="L23" t="n">
-        <v>15745.22926022256</v>
+        <v>10866423.24632317</v>
       </c>
       <c r="M23" t="n">
-        <v>-49191.77467679293</v>
+        <v>11238091.33677652</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13789255.99140369</v>
+        <v>8554348.50701968</v>
       </c>
       <c r="C24" t="n">
-        <v>11565602.62450917</v>
+        <v>10224261.94359828</v>
       </c>
       <c r="D24" t="n">
-        <v>12976447.41709141</v>
+        <v>9871990.731384391</v>
       </c>
       <c r="E24" t="n">
-        <v>11696674.2978681</v>
+        <v>10656390.11166168</v>
       </c>
       <c r="F24" t="n">
-        <v>12209624.6729693</v>
+        <v>13399680.50139231</v>
       </c>
       <c r="G24" t="n">
-        <v>14839373.59814173</v>
+        <v>8317993.74508068</v>
       </c>
       <c r="H24" t="n">
-        <v>10115374.08659049</v>
+        <v>10945517.1188752</v>
       </c>
       <c r="I24" t="n">
-        <v>12981554.15418165</v>
+        <v>11351150.87911983</v>
       </c>
       <c r="J24" t="n">
-        <v>14736489.85514045</v>
+        <v>11765636.71811983</v>
       </c>
       <c r="K24" t="n">
-        <v>13129642.45750612</v>
+        <v>10052744.94475935</v>
       </c>
       <c r="L24" t="n">
-        <v>12810700.58108637</v>
+        <v>11051857.885789</v>
       </c>
       <c r="M24" t="n">
-        <v>12527753.30093795</v>
+        <v>11835367.44173618</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2544878.662873288</v>
+        <v>4915780.27969005</v>
       </c>
       <c r="C25" t="n">
-        <v>2647640.478729283</v>
+        <v>6574953.825579517</v>
       </c>
       <c r="D25" t="n">
-        <v>2375160.811772371</v>
+        <v>6507308.488000059</v>
       </c>
       <c r="E25" t="n">
-        <v>3343724.923726884</v>
+        <v>6102237.392117967</v>
       </c>
       <c r="F25" t="n">
-        <v>3221772.840295695</v>
+        <v>7137291.038056089</v>
       </c>
       <c r="G25" t="n">
-        <v>2951788.741457394</v>
+        <v>4593084.900154554</v>
       </c>
       <c r="H25" t="n">
-        <v>1785241.929685012</v>
+        <v>5341288.890923001</v>
       </c>
       <c r="I25" t="n">
-        <v>2660580.930746231</v>
+        <v>7130892.315660521</v>
       </c>
       <c r="J25" t="n">
-        <v>2918863.529260705</v>
+        <v>6033145.889374472</v>
       </c>
       <c r="K25" t="n">
-        <v>2891712.139463087</v>
+        <v>4517569.348419479</v>
       </c>
       <c r="L25" t="n">
-        <v>2523323.814930404</v>
+        <v>4930254.42790496</v>
       </c>
       <c r="M25" t="n">
-        <v>3247211.385995437</v>
+        <v>6188188.196709067</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11628232.43823904</v>
+        <v>11349949.07602054</v>
       </c>
       <c r="C26" t="n">
-        <v>12225007.53163202</v>
+        <v>11392024.97807779</v>
       </c>
       <c r="D26" t="n">
-        <v>11146102.63234353</v>
+        <v>11340894.43887939</v>
       </c>
       <c r="E26" t="n">
-        <v>11385128.78745235</v>
+        <v>10268696.54307484</v>
       </c>
       <c r="F26" t="n">
-        <v>11134632.5506054</v>
+        <v>12769056.0331338</v>
       </c>
       <c r="G26" t="n">
-        <v>13102390.09745642</v>
+        <v>10005361.02553781</v>
       </c>
       <c r="H26" t="n">
-        <v>11665294.97393727</v>
+        <v>12870569.99723839</v>
       </c>
       <c r="I26" t="n">
-        <v>12152389.04744105</v>
+        <v>12581867.32231392</v>
       </c>
       <c r="J26" t="n">
-        <v>13590284.90756368</v>
+        <v>10466208.16311074</v>
       </c>
       <c r="K26" t="n">
-        <v>15714272.10242146</v>
+        <v>11003549.91708824</v>
       </c>
       <c r="L26" t="n">
-        <v>15104019.23706753</v>
+        <v>11199306.97662893</v>
       </c>
       <c r="M26" t="n">
-        <v>16404364.14888391</v>
+        <v>12017981.82966984</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14030343.38650261</v>
+        <v>4024003.136861477</v>
       </c>
       <c r="C27" t="n">
-        <v>14764640.72358707</v>
+        <v>3568727.114269639</v>
       </c>
       <c r="D27" t="n">
-        <v>15280119.67739848</v>
+        <v>3664592.178611079</v>
       </c>
       <c r="E27" t="n">
-        <v>15446407.21601164</v>
+        <v>3115994.192550287</v>
       </c>
       <c r="F27" t="n">
-        <v>16514490.77463039</v>
+        <v>4361772.01036125</v>
       </c>
       <c r="G27" t="n">
-        <v>23254778.63521356</v>
+        <v>2708540.579565033</v>
       </c>
       <c r="H27" t="n">
-        <v>16243667.80421614</v>
+        <v>3537135.534945579</v>
       </c>
       <c r="I27" t="n">
-        <v>19195625.57881072</v>
+        <v>3422370.241035386</v>
       </c>
       <c r="J27" t="n">
-        <v>18476738.69060206</v>
+        <v>3063125.821395849</v>
       </c>
       <c r="K27" t="n">
-        <v>18461633.11284568</v>
+        <v>2428707.675400316</v>
       </c>
       <c r="L27" t="n">
-        <v>16989227.19934327</v>
+        <v>2766996.911667486</v>
       </c>
       <c r="M27" t="n">
-        <v>17452198.17838233</v>
+        <v>4308966.412180087</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15408113.81243562</v>
+        <v>10467343.02903065</v>
       </c>
       <c r="C28" t="n">
-        <v>16827862.7765563</v>
+        <v>7923381.110936454</v>
       </c>
       <c r="D28" t="n">
-        <v>18418732.39896112</v>
+        <v>7447170.370762352</v>
       </c>
       <c r="E28" t="n">
-        <v>20088331.84618342</v>
+        <v>9285082.063670404</v>
       </c>
       <c r="F28" t="n">
-        <v>21336552.96045605</v>
+        <v>13335489.14985457</v>
       </c>
       <c r="G28" t="n">
-        <v>23085102.03027577</v>
+        <v>8917161.395193771</v>
       </c>
       <c r="H28" t="n">
-        <v>24950801.3642191</v>
+        <v>12200099.90213024</v>
       </c>
       <c r="I28" t="n">
-        <v>26745295.70026216</v>
+        <v>11346558.47687417</v>
       </c>
       <c r="J28" t="n">
-        <v>28628195.71753896</v>
+        <v>11843355.78333616</v>
       </c>
       <c r="K28" t="n">
-        <v>30222445.65316958</v>
+        <v>9558449.865929302</v>
       </c>
       <c r="L28" t="n">
-        <v>31421628.33120969</v>
+        <v>11912099.25591188</v>
       </c>
       <c r="M28" t="n">
-        <v>33185782.51550272</v>
+        <v>15313202.89126012</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18063149.31802075</v>
+        <v>2450785.645141414</v>
       </c>
       <c r="C29" t="n">
-        <v>19246610.07913103</v>
+        <v>2534624.32599509</v>
       </c>
       <c r="D29" t="n">
-        <v>21115362.58102985</v>
+        <v>2495578.284633772</v>
       </c>
       <c r="E29" t="n">
-        <v>23209846.08810301</v>
+        <v>2618371.444566966</v>
       </c>
       <c r="F29" t="n">
-        <v>24234591.37355287</v>
+        <v>2657994.655961413</v>
       </c>
       <c r="G29" t="n">
-        <v>23639788.71979451</v>
+        <v>2753305.986629502</v>
       </c>
       <c r="H29" t="n">
-        <v>24943426.57815856</v>
+        <v>2908569.327298974</v>
       </c>
       <c r="I29" t="n">
-        <v>25949152.92315064</v>
+        <v>3082310.188314155</v>
       </c>
       <c r="J29" t="n">
-        <v>26916130.68968531</v>
+        <v>3237583.781197017</v>
       </c>
       <c r="K29" t="n">
-        <v>27885822.96486212</v>
+        <v>3291469.831519462</v>
       </c>
       <c r="L29" t="n">
-        <v>28906076.684236</v>
+        <v>3518756.317917234</v>
       </c>
       <c r="M29" t="n">
-        <v>29926657.66261349</v>
+        <v>3545626.710804704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49317739.28533611</v>
+        <v>685263.8385199715</v>
       </c>
       <c r="C30" t="n">
-        <v>43584814.89460772</v>
+        <v>692360.7559392826</v>
       </c>
       <c r="D30" t="n">
-        <v>47553811.74282801</v>
+        <v>700622.057185472</v>
       </c>
       <c r="E30" t="n">
-        <v>49914008.17842646</v>
+        <v>721606.0144136674</v>
       </c>
       <c r="F30" t="n">
-        <v>48643045.67751319</v>
+        <v>1093324.293957706</v>
       </c>
       <c r="G30" t="n">
-        <v>42662935.35326108</v>
+        <v>782931.2398223063</v>
       </c>
       <c r="H30" t="n">
-        <v>42719981.20175753</v>
+        <v>814403.3528800583</v>
       </c>
       <c r="I30" t="n">
-        <v>47026473.24406443</v>
+        <v>750062.8678011762</v>
       </c>
       <c r="J30" t="n">
-        <v>43474380.37909375</v>
+        <v>935953.6444892094</v>
       </c>
       <c r="K30" t="n">
-        <v>43077480.74506193</v>
+        <v>825985.7672459831</v>
       </c>
       <c r="L30" t="n">
-        <v>39673756.9985762</v>
+        <v>763029.5616055512</v>
       </c>
       <c r="M30" t="n">
-        <v>45604422.6374595</v>
+        <v>869665.9742802746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46201887.4448022</v>
+        <v>519033.9989636608</v>
       </c>
       <c r="C31" t="n">
-        <v>47795744.1627899</v>
+        <v>699161.1786202892</v>
       </c>
       <c r="D31" t="n">
-        <v>48145097.63790773</v>
+        <v>793241.2279271089</v>
       </c>
       <c r="E31" t="n">
-        <v>51367443.3102805</v>
+        <v>879668.2930907682</v>
       </c>
       <c r="F31" t="n">
-        <v>45412433.52988017</v>
+        <v>836453.4399167374</v>
       </c>
       <c r="G31" t="n">
-        <v>43194686.23135362</v>
+        <v>473003.3596388616</v>
       </c>
       <c r="H31" t="n">
-        <v>41804795.18244357</v>
+        <v>719624.555283197</v>
       </c>
       <c r="I31" t="n">
-        <v>45248847.87335676</v>
+        <v>747667.7249846853</v>
       </c>
       <c r="J31" t="n">
-        <v>42068408.07235346</v>
+        <v>773373.3675617061</v>
       </c>
       <c r="K31" t="n">
-        <v>44585935.29525698</v>
+        <v>573152.371464444</v>
       </c>
       <c r="L31" t="n">
-        <v>39246148.94672349</v>
+        <v>561835.4064408721</v>
       </c>
       <c r="M31" t="n">
-        <v>45368384.6616806</v>
+        <v>565094.3107454949</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>796123.7906123559</v>
+        <v>1826543.006847562</v>
       </c>
       <c r="C32" t="n">
-        <v>966233.9121042233</v>
+        <v>2107130.632668634</v>
       </c>
       <c r="D32" t="n">
-        <v>1129236.731457231</v>
+        <v>2113978.133378247</v>
       </c>
       <c r="E32" t="n">
-        <v>1285258.135849988</v>
+        <v>1995829.392706451</v>
       </c>
       <c r="F32" t="n">
-        <v>1435714.643961601</v>
+        <v>2172154.04110308</v>
       </c>
       <c r="G32" t="n">
-        <v>1581494.159211922</v>
+        <v>1838569.160453117</v>
       </c>
       <c r="H32" t="n">
-        <v>1733412.459319815</v>
+        <v>2028624.764176715</v>
       </c>
       <c r="I32" t="n">
-        <v>1980733.907201516</v>
+        <v>2175803.557246162</v>
       </c>
       <c r="J32" t="n">
-        <v>2153681.35128295</v>
+        <v>2343335.811842612</v>
       </c>
       <c r="K32" t="n">
-        <v>2240753.218203841</v>
+        <v>2187398.202884665</v>
       </c>
       <c r="L32" t="n">
-        <v>2328924.577307211</v>
+        <v>2354086.901755147</v>
       </c>
       <c r="M32" t="n">
-        <v>2747285.916641403</v>
+        <v>2257743.631967875</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3552133.866572563</v>
+        <v>2270058.736036836</v>
       </c>
       <c r="C33" t="n">
-        <v>4576095.654345492</v>
+        <v>2142336.681535314</v>
       </c>
       <c r="D33" t="n">
-        <v>4170281.416086081</v>
+        <v>2104644.847797335</v>
       </c>
       <c r="E33" t="n">
-        <v>4080715.657172889</v>
+        <v>1933379.600113092</v>
       </c>
       <c r="F33" t="n">
-        <v>4837065.962540499</v>
+        <v>2029717.989439193</v>
       </c>
       <c r="G33" t="n">
-        <v>4472657.564399592</v>
+        <v>1975746.061385561</v>
       </c>
       <c r="H33" t="n">
-        <v>4627282.51630357</v>
+        <v>2012255.46027873</v>
       </c>
       <c r="I33" t="n">
-        <v>5174106.848683743</v>
+        <v>2021201.614973494</v>
       </c>
       <c r="J33" t="n">
-        <v>5130409.305829288</v>
+        <v>1926704.071507321</v>
       </c>
       <c r="K33" t="n">
-        <v>5876656.932779919</v>
+        <v>1986259.986426373</v>
       </c>
       <c r="L33" t="n">
-        <v>5030888.609065371</v>
+        <v>2379861.751660788</v>
       </c>
       <c r="M33" t="n">
-        <v>4902842.442302271</v>
+        <v>2560036.093698817</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10212509.27981954</v>
+        <v>3394276.958518452</v>
       </c>
       <c r="C34" t="n">
-        <v>9227574.631221749</v>
+        <v>2487723.849938563</v>
       </c>
       <c r="D34" t="n">
-        <v>12650447.34734734</v>
+        <v>3474954.344510163</v>
       </c>
       <c r="E34" t="n">
-        <v>12083586.42552185</v>
+        <v>2737987.10868986</v>
       </c>
       <c r="F34" t="n">
-        <v>13889686.15428927</v>
+        <v>3220377.754298711</v>
       </c>
       <c r="G34" t="n">
-        <v>13675431.29192436</v>
+        <v>2854628.430076769</v>
       </c>
       <c r="H34" t="n">
-        <v>12062289.18866663</v>
+        <v>2917188.835222974</v>
       </c>
       <c r="I34" t="n">
-        <v>12528839.95261821</v>
+        <v>3060357.871089212</v>
       </c>
       <c r="J34" t="n">
-        <v>12858174.1698241</v>
+        <v>3218416.423861407</v>
       </c>
       <c r="K34" t="n">
-        <v>14076363.72844939</v>
+        <v>3159781.022418088</v>
       </c>
       <c r="L34" t="n">
-        <v>13725020.76233062</v>
+        <v>3340583.401014497</v>
       </c>
       <c r="M34" t="n">
-        <v>13681803.54363536</v>
+        <v>3361937.030613994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4874239.953071497</v>
+        <v>1574693.503215684</v>
       </c>
       <c r="C35" t="n">
-        <v>4882465.11526078</v>
+        <v>1741123.90472619</v>
       </c>
       <c r="D35" t="n">
-        <v>5569530.119015957</v>
+        <v>1917352.844593298</v>
       </c>
       <c r="E35" t="n">
-        <v>5716640.40990088</v>
+        <v>1683253.219934534</v>
       </c>
       <c r="F35" t="n">
-        <v>6093731.423060445</v>
+        <v>1642062.567261189</v>
       </c>
       <c r="G35" t="n">
-        <v>5560079.774230739</v>
+        <v>1454327.590763257</v>
       </c>
       <c r="H35" t="n">
-        <v>5287174.921834246</v>
+        <v>1793441.456499402</v>
       </c>
       <c r="I35" t="n">
-        <v>6207297.613070976</v>
+        <v>1866451.274169653</v>
       </c>
       <c r="J35" t="n">
-        <v>5357666.984324479</v>
+        <v>1645235.411734957</v>
       </c>
       <c r="K35" t="n">
-        <v>5312815.593002176</v>
+        <v>1562658.439822641</v>
       </c>
       <c r="L35" t="n">
-        <v>5491807.192685818</v>
+        <v>1599550.668913746</v>
       </c>
       <c r="M35" t="n">
-        <v>6142113.826236695</v>
+        <v>1823304.520526548</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1941089.325865091</v>
+        <v>1293641.910998277</v>
       </c>
       <c r="C36" t="n">
-        <v>2590555.435546114</v>
+        <v>1303465.704201887</v>
       </c>
       <c r="D36" t="n">
-        <v>2993146.486646384</v>
+        <v>1517398.863896732</v>
       </c>
       <c r="E36" t="n">
-        <v>2412691.91631542</v>
+        <v>1152946.845105317</v>
       </c>
       <c r="F36" t="n">
-        <v>2279237.922792499</v>
+        <v>1250101.226260454</v>
       </c>
       <c r="G36" t="n">
-        <v>2776125.706802633</v>
+        <v>1243176.366878052</v>
       </c>
       <c r="H36" t="n">
-        <v>2745193.2589426</v>
+        <v>1467575.067594454</v>
       </c>
       <c r="I36" t="n">
-        <v>3431170.090151298</v>
+        <v>1503682.950077717</v>
       </c>
       <c r="J36" t="n">
-        <v>2845165.202959617</v>
+        <v>1426628.605711401</v>
       </c>
       <c r="K36" t="n">
-        <v>2225122.327306912</v>
+        <v>1465691.222354337</v>
       </c>
       <c r="L36" t="n">
-        <v>3167711.508376353</v>
+        <v>1777739.879412792</v>
       </c>
       <c r="M36" t="n">
-        <v>3294611.930401937</v>
+        <v>1705375.003096956</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6633948.757032153</v>
+        <v>4664514.439792152</v>
       </c>
       <c r="C37" t="n">
-        <v>7348356.981583492</v>
+        <v>4078087.948544905</v>
       </c>
       <c r="D37" t="n">
-        <v>5124717.131708188</v>
+        <v>4836510.212880345</v>
       </c>
       <c r="E37" t="n">
-        <v>6991373.352716015</v>
+        <v>4312108.519743818</v>
       </c>
       <c r="F37" t="n">
-        <v>5576313.192521716</v>
+        <v>3737509.367999963</v>
       </c>
       <c r="G37" t="n">
-        <v>6796550.393135775</v>
+        <v>3355786.177834095</v>
       </c>
       <c r="H37" t="n">
-        <v>3509204.372288162</v>
+        <v>3475288.635610998</v>
       </c>
       <c r="I37" t="n">
-        <v>5070525.073076422</v>
+        <v>4792893.647459494</v>
       </c>
       <c r="J37" t="n">
-        <v>6587040.728973011</v>
+        <v>3831427.619369621</v>
       </c>
       <c r="K37" t="n">
-        <v>4556268.523140661</v>
+        <v>3435906.148903093</v>
       </c>
       <c r="L37" t="n">
-        <v>4050891.849646397</v>
+        <v>4439245.700259278</v>
       </c>
       <c r="M37" t="n">
-        <v>5559055.658238471</v>
+        <v>4758875.544418929</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2290275.02329707</v>
+        <v>3808887.19514149</v>
       </c>
       <c r="C38" t="n">
-        <v>1856213.543246898</v>
+        <v>4402660.300643664</v>
       </c>
       <c r="D38" t="n">
-        <v>2578950.960685302</v>
+        <v>4238380.617278526</v>
       </c>
       <c r="E38" t="n">
-        <v>3033553.811376587</v>
+        <v>3714351.203004512</v>
       </c>
       <c r="F38" t="n">
-        <v>3129902.405721187</v>
+        <v>4333808.352567814</v>
       </c>
       <c r="G38" t="n">
-        <v>2079849.875648368</v>
+        <v>3397134.46944085</v>
       </c>
       <c r="H38" t="n">
-        <v>1712876.547769933</v>
+        <v>4005295.597294715</v>
       </c>
       <c r="I38" t="n">
-        <v>2953349.89600762</v>
+        <v>3719520.292888162</v>
       </c>
       <c r="J38" t="n">
-        <v>3186001.151969202</v>
+        <v>3945436.03405959</v>
       </c>
       <c r="K38" t="n">
-        <v>1849205.655425321</v>
+        <v>4417849.086248603</v>
       </c>
       <c r="L38" t="n">
-        <v>2065472.226195132</v>
+        <v>4321815.980762434</v>
       </c>
       <c r="M38" t="n">
-        <v>3137230.441042162</v>
+        <v>4471374.375260471</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3623798.877609123</v>
+        <v>5132730.518019146</v>
       </c>
       <c r="C39" t="n">
-        <v>3789905.853122865</v>
+        <v>5288123.178753267</v>
       </c>
       <c r="D39" t="n">
-        <v>3821741.985077512</v>
+        <v>5992278.583442785</v>
       </c>
       <c r="E39" t="n">
-        <v>5083095.489629123</v>
+        <v>4899355.016070356</v>
       </c>
       <c r="F39" t="n">
-        <v>4685970.077307584</v>
+        <v>4984114.047832064</v>
       </c>
       <c r="G39" t="n">
-        <v>4948138.347896047</v>
+        <v>4652037.988915162</v>
       </c>
       <c r="H39" t="n">
-        <v>4100529.846675033</v>
+        <v>5128497.662362074</v>
       </c>
       <c r="I39" t="n">
-        <v>3899644.147396391</v>
+        <v>5320009.568115555</v>
       </c>
       <c r="J39" t="n">
-        <v>3865720.048842752</v>
+        <v>5719390.145012412</v>
       </c>
       <c r="K39" t="n">
-        <v>4071468.422738401</v>
+        <v>5974320.506048081</v>
       </c>
       <c r="L39" t="n">
-        <v>4372104.13942932</v>
+        <v>6134371.392656906</v>
       </c>
       <c r="M39" t="n">
-        <v>4599534.52595297</v>
+        <v>6331738.165016525</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10396229.05396975</v>
+        <v>5550757.861799083</v>
       </c>
       <c r="C40" t="n">
-        <v>10199959.49173606</v>
+        <v>5423583.738546815</v>
       </c>
       <c r="D40" t="n">
-        <v>12272885.93864742</v>
+        <v>5789119.985754166</v>
       </c>
       <c r="E40" t="n">
-        <v>13832841.47744537</v>
+        <v>5481432.294623828</v>
       </c>
       <c r="F40" t="n">
-        <v>13341018.68960307</v>
+        <v>5821725.654768564</v>
       </c>
       <c r="G40" t="n">
-        <v>13686243.34869829</v>
+        <v>4883590.613277651</v>
       </c>
       <c r="H40" t="n">
-        <v>10866386.16665057</v>
+        <v>5514550.665532217</v>
       </c>
       <c r="I40" t="n">
-        <v>13241060.6194261</v>
+        <v>5707289.832636287</v>
       </c>
       <c r="J40" t="n">
-        <v>11827081.68848833</v>
+        <v>6153247.613499452</v>
       </c>
       <c r="K40" t="n">
-        <v>13557505.2875812</v>
+        <v>5806058.810631173</v>
       </c>
       <c r="L40" t="n">
-        <v>11471623.89616375</v>
+        <v>6346498.059893186</v>
       </c>
       <c r="M40" t="n">
-        <v>13021405.76452477</v>
+        <v>6107898.319678145</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9757700.587640272</v>
+        <v>3054072.017508795</v>
       </c>
       <c r="C41" t="n">
-        <v>17234608.64124519</v>
+        <v>3279658.658034905</v>
       </c>
       <c r="D41" t="n">
-        <v>14100882.30719761</v>
+        <v>3405121.464262377</v>
       </c>
       <c r="E41" t="n">
-        <v>11162629.91449442</v>
+        <v>2859247.4277039</v>
       </c>
       <c r="F41" t="n">
-        <v>11168700.43632549</v>
+        <v>3532054.324421667</v>
       </c>
       <c r="G41" t="n">
-        <v>11368208.79315737</v>
+        <v>2849504.368665698</v>
       </c>
       <c r="H41" t="n">
-        <v>9403923.929650165</v>
+        <v>2862288.880152801</v>
       </c>
       <c r="I41" t="n">
-        <v>10905825.0438801</v>
+        <v>3156812.101100497</v>
       </c>
       <c r="J41" t="n">
-        <v>10917384.04253369</v>
+        <v>3232909.208017696</v>
       </c>
       <c r="K41" t="n">
-        <v>10870862.10158663</v>
+        <v>2986135.626468155</v>
       </c>
       <c r="L41" t="n">
-        <v>9464060.444985969</v>
+        <v>3250251.431741524</v>
       </c>
       <c r="M41" t="n">
-        <v>12347587.56711903</v>
+        <v>3576712.488916734</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9917923.15315461</v>
+        <v>4340239.988216661</v>
       </c>
       <c r="C42" t="n">
-        <v>8851657.412341304</v>
+        <v>4841813.372645286</v>
       </c>
       <c r="D42" t="n">
-        <v>10507013.05438417</v>
+        <v>4652322.009414052</v>
       </c>
       <c r="E42" t="n">
-        <v>10140208.40855303</v>
+        <v>4466937.973171036</v>
       </c>
       <c r="F42" t="n">
-        <v>10910056.57862964</v>
+        <v>4337010.871372817</v>
       </c>
       <c r="G42" t="n">
-        <v>13638825.16573</v>
+        <v>3281597.501768852</v>
       </c>
       <c r="H42" t="n">
-        <v>9128781.180093614</v>
+        <v>3874044.645486603</v>
       </c>
       <c r="I42" t="n">
-        <v>11155625.65115405</v>
+        <v>4193279.002241483</v>
       </c>
       <c r="J42" t="n">
-        <v>11546700.52753283</v>
+        <v>4111728.751721596</v>
       </c>
       <c r="K42" t="n">
-        <v>11946617.97841542</v>
+        <v>3953431.100004186</v>
       </c>
       <c r="L42" t="n">
-        <v>10219155.54030225</v>
+        <v>4216376.984133259</v>
       </c>
       <c r="M42" t="n">
-        <v>11203724.26276943</v>
+        <v>4554761.434251934</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5950953.060189066</v>
+        <v>3308250.454211639</v>
       </c>
       <c r="C43" t="n">
-        <v>5397674.169673212</v>
+        <v>3357378.768857767</v>
       </c>
       <c r="D43" t="n">
-        <v>7089227.873850616</v>
+        <v>3390175.19883528</v>
       </c>
       <c r="E43" t="n">
-        <v>7053958.778062113</v>
+        <v>3530523.970496059</v>
       </c>
       <c r="F43" t="n">
-        <v>6681260.574789655</v>
+        <v>3774893.780787567</v>
       </c>
       <c r="G43" t="n">
-        <v>7748686.334776743</v>
+        <v>2740113.184717285</v>
       </c>
       <c r="H43" t="n">
-        <v>5654651.687183537</v>
+        <v>2830393.674756621</v>
       </c>
       <c r="I43" t="n">
-        <v>6017496.182664247</v>
+        <v>3579475.527342754</v>
       </c>
       <c r="J43" t="n">
-        <v>7839432.748049191</v>
+        <v>3277033.729173379</v>
       </c>
       <c r="K43" t="n">
-        <v>6774043.800880069</v>
+        <v>3378878.612253227</v>
       </c>
       <c r="L43" t="n">
-        <v>5290821.488893148</v>
+        <v>3700010.087072154</v>
       </c>
       <c r="M43" t="n">
-        <v>5735868.050556075</v>
+        <v>3723615.91360677</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13882977.10732004</v>
+        <v>5176331.730168133</v>
       </c>
       <c r="C44" t="n">
-        <v>15884110.52704264</v>
+        <v>6374454.714272859</v>
       </c>
       <c r="D44" t="n">
-        <v>15871812.79681187</v>
+        <v>5721108.591008661</v>
       </c>
       <c r="E44" t="n">
-        <v>15766117.23937957</v>
+        <v>5618079.112960953</v>
       </c>
       <c r="F44" t="n">
-        <v>14639355.39020852</v>
+        <v>6585280.641822222</v>
       </c>
       <c r="G44" t="n">
-        <v>17085151.24904094</v>
+        <v>5066144.856400458</v>
       </c>
       <c r="H44" t="n">
-        <v>15148250.92259873</v>
+        <v>5467337.238212779</v>
       </c>
       <c r="I44" t="n">
-        <v>17077891.89630372</v>
+        <v>6246781.662804428</v>
       </c>
       <c r="J44" t="n">
-        <v>16734269.36905869</v>
+        <v>5466878.046608328</v>
       </c>
       <c r="K44" t="n">
-        <v>14564045.14875508</v>
+        <v>5088141.693299868</v>
       </c>
       <c r="L44" t="n">
-        <v>15046823.3137529</v>
+        <v>5939877.550096286</v>
       </c>
       <c r="M44" t="n">
-        <v>15188017.768585</v>
+        <v>6816300.782052885</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6390673.812046329</v>
+        <v>3298767.860535407</v>
       </c>
       <c r="C45" t="n">
-        <v>5552855.461220256</v>
+        <v>3871242.466766736</v>
       </c>
       <c r="D45" t="n">
-        <v>5113151.650208618</v>
+        <v>3239665.87816823</v>
       </c>
       <c r="E45" t="n">
-        <v>5224630.012496446</v>
+        <v>3344876.433186735</v>
       </c>
       <c r="F45" t="n">
-        <v>4691683.180286157</v>
+        <v>3519111.815638201</v>
       </c>
       <c r="G45" t="n">
-        <v>5953116.74268746</v>
+        <v>2966177.81359226</v>
       </c>
       <c r="H45" t="n">
-        <v>4848168.005995989</v>
+        <v>3261902.160495089</v>
       </c>
       <c r="I45" t="n">
-        <v>5159911.680397181</v>
+        <v>3558801.136467399</v>
       </c>
       <c r="J45" t="n">
-        <v>5060704.954333073</v>
+        <v>3543930.642258666</v>
       </c>
       <c r="K45" t="n">
-        <v>4717087.523666294</v>
+        <v>3288257.988210412</v>
       </c>
       <c r="L45" t="n">
-        <v>4098285.555046004</v>
+        <v>3461237.126185346</v>
       </c>
       <c r="M45" t="n">
-        <v>4452220.015136672</v>
+        <v>3860833.501749527</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14810747.62595361</v>
+        <v>2236832.314532734</v>
       </c>
       <c r="C46" t="n">
-        <v>12112991.92051536</v>
+        <v>2451356.173772209</v>
       </c>
       <c r="D46" t="n">
-        <v>9600658.48997481</v>
+        <v>2508362.893780697</v>
       </c>
       <c r="E46" t="n">
-        <v>9156096.577665959</v>
+        <v>1826816.460101589</v>
       </c>
       <c r="F46" t="n">
-        <v>11025650.5797055</v>
+        <v>2148249.694673063</v>
       </c>
       <c r="G46" t="n">
-        <v>15107668.57761909</v>
+        <v>1868854.729077698</v>
       </c>
       <c r="H46" t="n">
-        <v>9935922.073019296</v>
+        <v>2140956.359713425</v>
       </c>
       <c r="I46" t="n">
-        <v>14035449.34971733</v>
+        <v>2498373.187727031</v>
       </c>
       <c r="J46" t="n">
-        <v>13213545.06622194</v>
+        <v>1987306.048770559</v>
       </c>
       <c r="K46" t="n">
-        <v>13741983.5537948</v>
+        <v>2215140.799980506</v>
       </c>
       <c r="L46" t="n">
-        <v>11488721.25568875</v>
+        <v>2103084.27334542</v>
       </c>
       <c r="M46" t="n">
-        <v>13873992.91928046</v>
+        <v>2153042.094099797</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2240178.618138866</v>
+        <v>1586767.693189947</v>
       </c>
       <c r="C47" t="n">
-        <v>2297914.556696808</v>
+        <v>1572782.65877631</v>
       </c>
       <c r="D47" t="n">
-        <v>2363747.391105984</v>
+        <v>1603762.467774414</v>
       </c>
       <c r="E47" t="n">
-        <v>2306698.821025024</v>
+        <v>1377297.433617429</v>
       </c>
       <c r="F47" t="n">
-        <v>2411490.440564961</v>
+        <v>1341240.025730647</v>
       </c>
       <c r="G47" t="n">
-        <v>2433112.959768667</v>
+        <v>1384561.491542227</v>
       </c>
       <c r="H47" t="n">
-        <v>2527544.834043616</v>
+        <v>1421707.015799562</v>
       </c>
       <c r="I47" t="n">
-        <v>2647691.855347465</v>
+        <v>1389721.92886245</v>
       </c>
       <c r="J47" t="n">
-        <v>2803428.382285985</v>
+        <v>1601677.169246649</v>
       </c>
       <c r="K47" t="n">
-        <v>2940698.776769375</v>
+        <v>1762859.74719804</v>
       </c>
       <c r="L47" t="n">
-        <v>2976583.745201724</v>
+        <v>1652344.72117563</v>
       </c>
       <c r="M47" t="n">
-        <v>3185869.53566445</v>
+        <v>1740006.879505748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>698318.5344175333</v>
+        <v>5214214.302603505</v>
       </c>
       <c r="C48" t="n">
-        <v>698557.5806197939</v>
+        <v>5739352.439130223</v>
       </c>
       <c r="D48" t="n">
-        <v>706461.6369066183</v>
+        <v>5841283.979929617</v>
       </c>
       <c r="E48" t="n">
-        <v>715530.0056454589</v>
+        <v>5590800.001737163</v>
       </c>
       <c r="F48" t="n">
-        <v>737321.0232706396</v>
+        <v>5943696.071339586</v>
       </c>
       <c r="G48" t="n">
-        <v>1109846.974513459</v>
+        <v>5655826.951948661</v>
       </c>
       <c r="H48" t="n">
-        <v>804989.398488048</v>
+        <v>6043383.249489266</v>
       </c>
       <c r="I48" t="n">
-        <v>832540.0481815315</v>
+        <v>5929247.101239819</v>
       </c>
       <c r="J48" t="n">
-        <v>769005.8730365129</v>
+        <v>5954673.15069663</v>
       </c>
       <c r="K48" t="n">
-        <v>955704.2863141971</v>
+        <v>6305123.865566762</v>
       </c>
       <c r="L48" t="n">
-        <v>846542.9265424353</v>
+        <v>6241295.516565761</v>
       </c>
       <c r="M48" t="n">
-        <v>784393.39141192</v>
+        <v>6191623.751615454</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>587431.4524719785</v>
+        <v>607920.6645344541</v>
       </c>
       <c r="C49" t="n">
-        <v>559757.1519214177</v>
+        <v>709330.6876213024</v>
       </c>
       <c r="D49" t="n">
-        <v>742037.3576260245</v>
+        <v>537292.043373634</v>
       </c>
       <c r="E49" t="n">
-        <v>838270.081930167</v>
+        <v>561603.0708312738</v>
       </c>
       <c r="F49" t="n">
-        <v>926850.2472527382</v>
+        <v>605862.0477159505</v>
       </c>
       <c r="G49" t="n">
-        <v>885788.741024869</v>
+        <v>498717.7634408517</v>
       </c>
       <c r="H49" t="n">
-        <v>531589.2150129694</v>
+        <v>676157.5396697802</v>
       </c>
       <c r="I49" t="n">
-        <v>773265.0743639347</v>
+        <v>848198.1826701476</v>
       </c>
       <c r="J49" t="n">
-        <v>803460.849144815</v>
+        <v>881835.5206418968</v>
       </c>
       <c r="K49" t="n">
-        <v>831316.4826947311</v>
+        <v>738743.2216809931</v>
       </c>
       <c r="L49" t="n">
-        <v>633248.9252593362</v>
+        <v>694480.43536403</v>
       </c>
       <c r="M49" t="n">
-        <v>624083.7472009037</v>
+        <v>771754.0002516301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1604645.068334773</v>
+        <v>2964765.377793224</v>
       </c>
       <c r="C50" t="n">
-        <v>1613382.49179466</v>
+        <v>2948119.487908311</v>
       </c>
       <c r="D50" t="n">
-        <v>1885379.427496565</v>
+        <v>2941806.647829464</v>
       </c>
       <c r="E50" t="n">
-        <v>1883635.01802461</v>
+        <v>3062862.06764807</v>
       </c>
       <c r="F50" t="n">
-        <v>1756891.10205202</v>
+        <v>3227753.937816342</v>
       </c>
       <c r="G50" t="n">
-        <v>1924620.035143067</v>
+        <v>2984589.416032094</v>
       </c>
       <c r="H50" t="n">
-        <v>1707940.055028385</v>
+        <v>3156000.62731137</v>
       </c>
       <c r="I50" t="n">
-        <v>1763922.774829576</v>
+        <v>3301454.340017719</v>
       </c>
       <c r="J50" t="n">
-        <v>1902494.647402721</v>
+        <v>3423246.371982582</v>
       </c>
       <c r="K50" t="n">
-        <v>2061424.663617133</v>
+        <v>3701126.210200442</v>
       </c>
       <c r="L50" t="n">
-        <v>1896888.3254716</v>
+        <v>3848089.00318423</v>
       </c>
       <c r="M50" t="n">
-        <v>2054979.83124099</v>
+        <v>3871324.493962488</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2513277.633122152</v>
+        <v>2977426.113244568</v>
       </c>
       <c r="C51" t="n">
-        <v>2440463.336443993</v>
+        <v>3183488.465396645</v>
       </c>
       <c r="D51" t="n">
-        <v>2320512.808924598</v>
+        <v>3237881.81880569</v>
       </c>
       <c r="E51" t="n">
-        <v>2290603.12951641</v>
+        <v>3307251.749505859</v>
       </c>
       <c r="F51" t="n">
-        <v>2127123.048892322</v>
+        <v>3310763.988279926</v>
       </c>
       <c r="G51" t="n">
-        <v>2231248.113147418</v>
+        <v>3181881.137398122</v>
       </c>
       <c r="H51" t="n">
-        <v>2049387.755257249</v>
+        <v>3458984.222877795</v>
       </c>
       <c r="I51" t="n">
-        <v>2229322.766498654</v>
+        <v>3455323.424947709</v>
       </c>
       <c r="J51" t="n">
-        <v>2246076.649568596</v>
+        <v>3799647.985452362</v>
       </c>
       <c r="K51" t="n">
-        <v>2159376.040078399</v>
+        <v>3782694.779075708</v>
       </c>
       <c r="L51" t="n">
-        <v>2226723.799994118</v>
+        <v>3901241.871476433</v>
       </c>
       <c r="M51" t="n">
-        <v>2628109.854962961</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3070939.239423055</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3759770.755540748</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2875344.325056776</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3884630.105839579</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3169802.548649584</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3674249.246315167</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3291624.9213907</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3415295.978403253</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3580638.12939702</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3760793.280297566</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3724326.155623318</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3927205.367567513</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1397856.063684821</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1286409.18826724</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1440593.263104982</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1604569.144040814</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1358181.342506332</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1304737.599650667</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1206027.748452483</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1431724.811350649</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1492323.981007772</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1258872.640395046</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1164042.137418594</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1188729.182742676</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1736912.147395415</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1444979.717756491</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1466693.705212515</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1692517.601579301</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1339955.402571047</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1448999.841805494</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1528331.486333214</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1690255.513595653</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1738252.917097236</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1673086.879053023</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1724038.259597786</v>
-      </c>
-      <c r="M54" t="n">
-        <v>2047974.96635049</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4600272.938307093</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4815684.251348325</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4243956.83935996</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5017080.248545777</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4507382.152801074</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3947485.812880025</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3391246.016725827</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3714659.9795405</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5046972.973849619</v>
-      </c>
-      <c r="K55" t="n">
-        <v>4100201.311666525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3719388.835679641</v>
-      </c>
-      <c r="M55" t="n">
-        <v>4737445.284811691</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3918755.923307592</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3814010.203827464</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4409457.692438215</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4246824.751306578</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3724453.746282486</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4345583.689793347</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3700557.20197362</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4020400.747792031</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3736279.889707217</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3963855.832020819</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4437934.21064759</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4343566.177256736</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5658052.544548335</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5475408.23487417</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5648689.088093801</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6370754.789345745</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5295750.297433468</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5398435.632177692</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5141847.935120497</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5578684.802481925</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5788113.42659359</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6205419.981163028</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6478274.447405671</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6656250.769503697</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5123563.306105899</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5599167.446524167</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5456281.227530238</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5806098.849859918</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5482681.805361507</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5807263.867240033</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5010868.101920696</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5468650.777167615</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5645694.812345255</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6075913.285614641</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5713018.984020585</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6237728.134929392</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3251443.708821106</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3147271.225777739</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3374214.634156931</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3501032.73377492</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2956513.025309805</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3630675.590241026</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2684463.322833776</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2963613.58627575</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3259489.959665692</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3336940.26513889</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3091522.74653447</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3356992.518808494</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4131521.812095243</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4429702.05854141</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4932985.925771208</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4745203.246349166</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4561529.299492601</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4433312.665568025</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3586840.679453521</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3973772.487970396</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4294715.903126484</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4214873.564370865</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4058282.307467517</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4322937.910530253</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3318525.777627219</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3390627.258610154</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3446759.193776428</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3486564.503890369</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3633921.596251641</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3885309.389370263</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3173700.694539106</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2954880.889406135</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3710952.758392</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3415511.330809857</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3524362.925048422</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3852504.057266943</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6643925.622048978</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5672197.834179066</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6886877.413340967</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6250060.441991428</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6163578.786280858</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7147325.968785335</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5290996.365314164</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6062404.747531245</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6858415.535217871</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6095057.629254354</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5732869.773365103</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6601170.653765691</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3517397.777916814</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3478664.306311406</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4058207.766193606</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3433698.652030447</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3545976.121771358</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3727281.457332174</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3225818.344815683</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3484221.102673844</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3788187.80489703</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3780385.209626811</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3531780.908421583</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3711831.008643073</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2249811.741742306</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2284054.235572533</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2505816.369487245</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2570061.205767294</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1895753.009566654</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2224424.513066204</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1893005.753567784</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2231607.003058839</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2596261.620578065</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2092432.384583164</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2327504.941280518</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2222686.119100491</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1767311.959862402</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1692418.961616932</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1684560.837061685</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1721684.741985986</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1501363.772005772</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1471450.402228372</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1590359.656408761</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1564233.713509123</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1538364.599856813</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1756463.807680774</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1923790.613807325</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1819419.917336859</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4827730.018052734</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5002819.699615944</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5522991.627318441</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5619893.684094012</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5364401.817570444</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5712310.239820895</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5201613.380857956</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5801962.070421859</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5682786.510767517</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5703195.235296944</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6048707.196367945</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5979868.972560477</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>678064.3940124445</v>
-      </c>
-      <c r="C67" t="n">
-        <v>646316.5480305938</v>
-      </c>
-      <c r="D67" t="n">
-        <v>742217.8557605231</v>
-      </c>
-      <c r="E67" t="n">
-        <v>564663.9007551338</v>
-      </c>
-      <c r="F67" t="n">
-        <v>583464.4869161486</v>
-      </c>
-      <c r="G67" t="n">
-        <v>622213.5135798504</v>
-      </c>
-      <c r="H67" t="n">
-        <v>571257.0746567694</v>
-      </c>
-      <c r="I67" t="n">
-        <v>681504.3673018167</v>
-      </c>
-      <c r="J67" t="n">
-        <v>848022.1479029935</v>
-      </c>
-      <c r="K67" t="n">
-        <v>876144.8619009726</v>
-      </c>
-      <c r="L67" t="n">
-        <v>727541.038506403</v>
-      </c>
-      <c r="M67" t="n">
-        <v>677761.9716186612</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2928430.036309185</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3076897.59898152</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3080733.840713297</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3094903.271490037</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3236441.0603277</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3421815.440527959</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3321309.766182017</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3391043.47203132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3556977.637992716</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3699250.289710695</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3997610.544630415</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4165054.612728962</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3066234.489825345</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3224042.88229578</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3458829.597015392</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3541945.82078218</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3640039.352538233</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3672274.376872978</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3715034.856682322</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3877992.613674817</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3903009.561174428</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4276051.1180495</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4287817.896457219</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4435087.324167527</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7255498.706917543</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6753787.21196241</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7393087.606856101</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7607111.534416444</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7573895.494179424</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7834354.554250657</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7362276.672165107</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7302532.855589963</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7101454.163850022</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7774235.752493876</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7653243.412734545</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7630191.821105592</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19849680.93098647</v>
-      </c>
-      <c r="C71" t="n">
-        <v>21360389.543129</v>
-      </c>
-      <c r="D71" t="n">
-        <v>22964324.84283309</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23504974.48765896</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25885675.90427199</v>
-      </c>
-      <c r="G71" t="n">
-        <v>37823207.39385675</v>
-      </c>
-      <c r="H71" t="n">
-        <v>20148249.32637217</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29036501.39203919</v>
-      </c>
-      <c r="J71" t="n">
-        <v>29890172.34446051</v>
-      </c>
-      <c r="K71" t="n">
-        <v>29966754.32118082</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30159360.14845032</v>
-      </c>
-      <c r="M71" t="n">
-        <v>32162870.7711647</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>3884401.224366241</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2900867.351279973</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4355957.269791572</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2113696.225125635</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4845991.465227381</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2836331.098701461</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2712318.704502153</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5410063.268436057</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6165463.923472295</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4514279.602299041</v>
-      </c>
-      <c r="L72" t="n">
-        <v>5326335.058622266</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3328927.537746799</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9294616.071050342</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9150356.367515523</v>
-      </c>
-      <c r="D73" t="n">
-        <v>8830104.46842709</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9583413.639233451</v>
-      </c>
-      <c r="F73" t="n">
-        <v>8255725.394043686</v>
-      </c>
-      <c r="G73" t="n">
-        <v>8902322.44002454</v>
-      </c>
-      <c r="H73" t="n">
-        <v>9021832.228182713</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10344685.44355778</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11448043.29481503</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10500484.93644041</v>
-      </c>
-      <c r="L73" t="n">
-        <v>9652433.4938681</v>
-      </c>
-      <c r="M73" t="n">
-        <v>9673013.496723637</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19999663.88313154</v>
-      </c>
-      <c r="C74" t="n">
-        <v>17128554.99850815</v>
-      </c>
-      <c r="D74" t="n">
-        <v>19854214.01142715</v>
-      </c>
-      <c r="E74" t="n">
-        <v>19833207.1614776</v>
-      </c>
-      <c r="F74" t="n">
-        <v>21548216.09934944</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27232568.88448413</v>
-      </c>
-      <c r="H74" t="n">
-        <v>16209340.01854938</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21259224.18776582</v>
-      </c>
-      <c r="J74" t="n">
-        <v>24779711.42271482</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22899524.84964374</v>
-      </c>
-      <c r="L74" t="n">
-        <v>20892792.49956296</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22240833.30399933</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23011427.89600022</v>
-      </c>
-      <c r="C75" t="n">
-        <v>24192437.75791429</v>
-      </c>
-      <c r="D75" t="n">
-        <v>23150383.89874136</v>
-      </c>
-      <c r="E75" t="n">
-        <v>23464227.17149183</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24008670.48849876</v>
-      </c>
-      <c r="G75" t="n">
-        <v>32740519.40738811</v>
-      </c>
-      <c r="H75" t="n">
-        <v>23950335.3065053</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27349278.85282839</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28187818.08413881</v>
-      </c>
-      <c r="K75" t="n">
-        <v>29955868.84817821</v>
-      </c>
-      <c r="L75" t="n">
-        <v>28939926.17691942</v>
-      </c>
-      <c r="M75" t="n">
-        <v>31259730.50010367</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15408113.81243562</v>
-      </c>
-      <c r="C76" t="n">
-        <v>16827862.7765563</v>
-      </c>
-      <c r="D76" t="n">
-        <v>18418732.39896112</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20088331.84618342</v>
-      </c>
-      <c r="F76" t="n">
-        <v>21336552.96045605</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23085102.03027577</v>
-      </c>
-      <c r="H76" t="n">
-        <v>24950801.3642191</v>
-      </c>
-      <c r="I76" t="n">
-        <v>26745295.70026216</v>
-      </c>
-      <c r="J76" t="n">
-        <v>28628195.71753896</v>
-      </c>
-      <c r="K76" t="n">
-        <v>30222445.65316958</v>
-      </c>
-      <c r="L76" t="n">
-        <v>31421628.33120969</v>
-      </c>
-      <c r="M76" t="n">
-        <v>33185782.51550272</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>18102273.81791334</v>
-      </c>
-      <c r="C77" t="n">
-        <v>19260953.87913742</v>
-      </c>
-      <c r="D77" t="n">
-        <v>21118916.3571439</v>
-      </c>
-      <c r="E77" t="n">
-        <v>23202611.74721089</v>
-      </c>
-      <c r="F77" t="n">
-        <v>24245143.34449743</v>
-      </c>
-      <c r="G77" t="n">
-        <v>23801983.43022389</v>
-      </c>
-      <c r="H77" t="n">
-        <v>24904431.68294041</v>
-      </c>
-      <c r="I77" t="n">
-        <v>25898770.42860541</v>
-      </c>
-      <c r="J77" t="n">
-        <v>26854957.99110453</v>
-      </c>
-      <c r="K77" t="n">
-        <v>27816101.21372348</v>
-      </c>
-      <c r="L77" t="n">
-        <v>28828269.19246277</v>
-      </c>
-      <c r="M77" t="n">
-        <v>29833131.03476239</v>
+        <v>3979775.710888242</v>
       </c>
     </row>
   </sheetData>
